--- a/src/static/download_ippan_chosa.xlsx
+++ b/src/static/download_ippan_chosa.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPPAN" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="WEATHER" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="AREA" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="CITY_VLOOK" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="KASEN_VLOOK" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -701,8 +702,8 @@
   </sheetPr>
   <dimension ref="B2:AD1020"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
+    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
@@ -3152,676 +3153,2164 @@
       <c r="AA43" s="31" t="inlineStr"/>
     </row>
     <row r="44" ht="13.2" customHeight="1" s="20">
-      <c r="B44" s="31" t="n"/>
-      <c r="C44" s="31" t="n"/>
-      <c r="D44" s="31" t="n"/>
-      <c r="E44" s="31" t="n"/>
-      <c r="F44" s="31" t="n"/>
-      <c r="G44" s="31" t="n"/>
-      <c r="H44" s="31" t="n"/>
-      <c r="I44" s="31" t="n"/>
-      <c r="J44" s="31" t="n"/>
-      <c r="K44" s="31" t="n"/>
-      <c r="L44" s="31" t="n"/>
-      <c r="M44" s="31" t="n"/>
-      <c r="N44" s="31" t="n"/>
-      <c r="O44" s="31" t="n"/>
-      <c r="P44" s="31" t="n"/>
-      <c r="Q44" s="31" t="n"/>
-      <c r="R44" s="31" t="n"/>
-      <c r="S44" s="31" t="n"/>
-      <c r="T44" s="31" t="n"/>
-      <c r="U44" s="31" t="n"/>
-      <c r="V44" s="31" t="n"/>
-      <c r="W44" s="31" t="n"/>
-      <c r="X44" s="31" t="n"/>
-      <c r="Y44" s="31" t="n"/>
-      <c r="Z44" s="31" t="n"/>
-      <c r="AA44" s="31" t="n"/>
+      <c r="B44" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C44" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D44" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E44" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z44" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA44" s="31" t="inlineStr"/>
     </row>
     <row r="45" ht="13.2" customHeight="1" s="20">
-      <c r="B45" s="31" t="n"/>
-      <c r="C45" s="31" t="n"/>
-      <c r="D45" s="31" t="n"/>
-      <c r="E45" s="31" t="n"/>
-      <c r="F45" s="31" t="n"/>
-      <c r="G45" s="31" t="n"/>
-      <c r="H45" s="31" t="n"/>
-      <c r="I45" s="31" t="n"/>
-      <c r="J45" s="31" t="n"/>
-      <c r="K45" s="31" t="n"/>
-      <c r="L45" s="31" t="n"/>
-      <c r="M45" s="31" t="n"/>
-      <c r="N45" s="31" t="n"/>
-      <c r="O45" s="31" t="n"/>
-      <c r="P45" s="31" t="n"/>
-      <c r="Q45" s="31" t="n"/>
-      <c r="R45" s="31" t="n"/>
-      <c r="S45" s="31" t="n"/>
-      <c r="T45" s="31" t="n"/>
-      <c r="U45" s="31" t="n"/>
-      <c r="V45" s="31" t="n"/>
-      <c r="W45" s="31" t="n"/>
-      <c r="X45" s="31" t="n"/>
-      <c r="Y45" s="31" t="n"/>
-      <c r="Z45" s="31" t="n"/>
-      <c r="AA45" s="31" t="n"/>
+      <c r="B45" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D45" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E45" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z45" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA45" s="31" t="inlineStr"/>
     </row>
     <row r="46" ht="13.2" customHeight="1" s="20">
-      <c r="B46" s="31" t="n"/>
-      <c r="C46" s="31" t="n"/>
-      <c r="D46" s="31" t="n"/>
-      <c r="E46" s="31" t="n"/>
-      <c r="F46" s="31" t="n"/>
-      <c r="G46" s="31" t="n"/>
-      <c r="H46" s="31" t="n"/>
-      <c r="I46" s="31" t="n"/>
-      <c r="J46" s="31" t="n"/>
-      <c r="K46" s="31" t="n"/>
-      <c r="L46" s="31" t="n"/>
-      <c r="M46" s="31" t="n"/>
-      <c r="N46" s="31" t="n"/>
-      <c r="O46" s="31" t="n"/>
-      <c r="P46" s="31" t="n"/>
-      <c r="Q46" s="31" t="n"/>
-      <c r="R46" s="31" t="n"/>
-      <c r="S46" s="31" t="n"/>
-      <c r="T46" s="31" t="n"/>
-      <c r="U46" s="31" t="n"/>
-      <c r="V46" s="31" t="n"/>
-      <c r="W46" s="31" t="n"/>
-      <c r="X46" s="31" t="n"/>
-      <c r="Y46" s="31" t="n"/>
-      <c r="Z46" s="31" t="n"/>
-      <c r="AA46" s="31" t="n"/>
+      <c r="B46" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D46" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E46" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z46" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA46" s="31" t="inlineStr"/>
     </row>
     <row r="47" ht="13.2" customHeight="1" s="20">
-      <c r="B47" s="31" t="n"/>
-      <c r="C47" s="31" t="n"/>
-      <c r="D47" s="31" t="n"/>
-      <c r="E47" s="31" t="n"/>
-      <c r="F47" s="31" t="n"/>
-      <c r="G47" s="31" t="n"/>
-      <c r="H47" s="31" t="n"/>
-      <c r="I47" s="31" t="n"/>
-      <c r="J47" s="31" t="n"/>
-      <c r="K47" s="31" t="n"/>
-      <c r="L47" s="31" t="n"/>
-      <c r="M47" s="31" t="n"/>
-      <c r="N47" s="31" t="n"/>
-      <c r="O47" s="31" t="n"/>
-      <c r="P47" s="31" t="n"/>
-      <c r="Q47" s="31" t="n"/>
-      <c r="R47" s="31" t="n"/>
-      <c r="S47" s="31" t="n"/>
-      <c r="T47" s="31" t="n"/>
-      <c r="U47" s="31" t="n"/>
-      <c r="V47" s="31" t="n"/>
-      <c r="W47" s="31" t="n"/>
-      <c r="X47" s="31" t="n"/>
-      <c r="Y47" s="31" t="n"/>
-      <c r="Z47" s="31" t="n"/>
-      <c r="AA47" s="31" t="n"/>
+      <c r="B47" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D47" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E47" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z47" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA47" s="31" t="inlineStr"/>
     </row>
     <row r="48" ht="13.2" customHeight="1" s="20">
-      <c r="B48" s="31" t="n"/>
-      <c r="C48" s="31" t="n"/>
-      <c r="D48" s="31" t="n"/>
-      <c r="E48" s="31" t="n"/>
-      <c r="F48" s="31" t="n"/>
-      <c r="G48" s="31" t="n"/>
-      <c r="H48" s="31" t="n"/>
-      <c r="I48" s="31" t="n"/>
-      <c r="J48" s="31" t="n"/>
-      <c r="K48" s="31" t="n"/>
-      <c r="L48" s="31" t="n"/>
-      <c r="M48" s="31" t="n"/>
-      <c r="N48" s="31" t="n"/>
-      <c r="O48" s="31" t="n"/>
-      <c r="P48" s="31" t="n"/>
-      <c r="Q48" s="31" t="n"/>
-      <c r="R48" s="31" t="n"/>
-      <c r="S48" s="31" t="n"/>
-      <c r="T48" s="31" t="n"/>
-      <c r="U48" s="31" t="n"/>
-      <c r="V48" s="31" t="n"/>
-      <c r="W48" s="31" t="n"/>
-      <c r="X48" s="31" t="n"/>
-      <c r="Y48" s="31" t="n"/>
-      <c r="Z48" s="31" t="n"/>
-      <c r="AA48" s="31" t="n"/>
+      <c r="B48" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D48" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E48" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z48" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA48" s="31" t="inlineStr"/>
     </row>
     <row r="49" ht="13.2" customHeight="1" s="20">
-      <c r="B49" s="31" t="n"/>
-      <c r="C49" s="31" t="n"/>
-      <c r="D49" s="31" t="n"/>
-      <c r="E49" s="31" t="n"/>
-      <c r="F49" s="31" t="n"/>
-      <c r="G49" s="31" t="n"/>
-      <c r="H49" s="31" t="n"/>
-      <c r="I49" s="31" t="n"/>
-      <c r="J49" s="31" t="n"/>
-      <c r="K49" s="31" t="n"/>
-      <c r="L49" s="31" t="n"/>
-      <c r="M49" s="31" t="n"/>
-      <c r="N49" s="31" t="n"/>
-      <c r="O49" s="31" t="n"/>
-      <c r="P49" s="31" t="n"/>
-      <c r="Q49" s="31" t="n"/>
-      <c r="R49" s="31" t="n"/>
-      <c r="S49" s="31" t="n"/>
-      <c r="T49" s="31" t="n"/>
-      <c r="U49" s="31" t="n"/>
-      <c r="V49" s="31" t="n"/>
-      <c r="W49" s="31" t="n"/>
-      <c r="X49" s="31" t="n"/>
-      <c r="Y49" s="31" t="n"/>
-      <c r="Z49" s="31" t="n"/>
-      <c r="AA49" s="31" t="n"/>
+      <c r="B49" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C49" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D49" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E49" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z49" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA49" s="31" t="inlineStr"/>
     </row>
     <row r="50" ht="13.2" customHeight="1" s="20">
-      <c r="B50" s="31" t="n"/>
-      <c r="C50" s="31" t="n"/>
-      <c r="D50" s="31" t="n"/>
-      <c r="E50" s="31" t="n"/>
-      <c r="F50" s="31" t="n"/>
-      <c r="G50" s="31" t="n"/>
-      <c r="H50" s="31" t="n"/>
-      <c r="I50" s="31" t="n"/>
-      <c r="J50" s="31" t="n"/>
-      <c r="K50" s="31" t="n"/>
-      <c r="L50" s="31" t="n"/>
-      <c r="M50" s="31" t="n"/>
-      <c r="N50" s="31" t="n"/>
-      <c r="O50" s="31" t="n"/>
-      <c r="P50" s="31" t="n"/>
-      <c r="Q50" s="31" t="n"/>
-      <c r="R50" s="31" t="n"/>
-      <c r="S50" s="31" t="n"/>
-      <c r="T50" s="31" t="n"/>
-      <c r="U50" s="31" t="n"/>
-      <c r="V50" s="31" t="n"/>
-      <c r="W50" s="31" t="n"/>
-      <c r="X50" s="31" t="n"/>
-      <c r="Y50" s="31" t="n"/>
-      <c r="Z50" s="31" t="n"/>
-      <c r="AA50" s="31" t="n"/>
+      <c r="B50" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D50" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E50" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z50" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA50" s="31" t="inlineStr"/>
     </row>
     <row r="51" ht="13.2" customHeight="1" s="20">
-      <c r="B51" s="31" t="n"/>
-      <c r="C51" s="31" t="n"/>
-      <c r="D51" s="31" t="n"/>
-      <c r="E51" s="31" t="n"/>
-      <c r="F51" s="31" t="n"/>
-      <c r="G51" s="31" t="n"/>
-      <c r="H51" s="31" t="n"/>
-      <c r="I51" s="31" t="n"/>
-      <c r="J51" s="31" t="n"/>
-      <c r="K51" s="31" t="n"/>
-      <c r="L51" s="31" t="n"/>
-      <c r="M51" s="31" t="n"/>
-      <c r="N51" s="31" t="n"/>
-      <c r="O51" s="31" t="n"/>
-      <c r="P51" s="31" t="n"/>
-      <c r="Q51" s="31" t="n"/>
-      <c r="R51" s="31" t="n"/>
-      <c r="S51" s="31" t="n"/>
-      <c r="T51" s="31" t="n"/>
-      <c r="U51" s="31" t="n"/>
-      <c r="V51" s="31" t="n"/>
-      <c r="W51" s="31" t="n"/>
-      <c r="X51" s="31" t="n"/>
-      <c r="Y51" s="31" t="n"/>
-      <c r="Z51" s="31" t="n"/>
-      <c r="AA51" s="31" t="n"/>
+      <c r="B51" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D51" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E51" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z51" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA51" s="31" t="inlineStr"/>
     </row>
     <row r="52" ht="13.2" customHeight="1" s="20">
-      <c r="B52" s="31" t="n"/>
-      <c r="C52" s="31" t="n"/>
-      <c r="D52" s="31" t="n"/>
-      <c r="E52" s="31" t="n"/>
-      <c r="F52" s="31" t="n"/>
-      <c r="G52" s="31" t="n"/>
-      <c r="H52" s="31" t="n"/>
-      <c r="I52" s="31" t="n"/>
-      <c r="J52" s="31" t="n"/>
-      <c r="K52" s="31" t="n"/>
-      <c r="L52" s="31" t="n"/>
-      <c r="M52" s="31" t="n"/>
-      <c r="N52" s="31" t="n"/>
-      <c r="O52" s="31" t="n"/>
-      <c r="P52" s="31" t="n"/>
-      <c r="Q52" s="31" t="n"/>
-      <c r="R52" s="31" t="n"/>
-      <c r="S52" s="31" t="n"/>
-      <c r="T52" s="31" t="n"/>
-      <c r="U52" s="31" t="n"/>
-      <c r="V52" s="31" t="n"/>
-      <c r="W52" s="31" t="n"/>
-      <c r="X52" s="31" t="n"/>
-      <c r="Y52" s="31" t="n"/>
-      <c r="Z52" s="31" t="n"/>
-      <c r="AA52" s="31" t="n"/>
+      <c r="B52" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C52" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D52" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E52" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z52" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA52" s="31" t="inlineStr"/>
     </row>
     <row r="53" ht="13.2" customHeight="1" s="20">
-      <c r="B53" s="31" t="n"/>
-      <c r="C53" s="31" t="n"/>
-      <c r="D53" s="31" t="n"/>
-      <c r="E53" s="31" t="n"/>
-      <c r="F53" s="31" t="n"/>
-      <c r="G53" s="31" t="n"/>
-      <c r="H53" s="31" t="n"/>
-      <c r="I53" s="31" t="n"/>
-      <c r="J53" s="31" t="n"/>
-      <c r="K53" s="31" t="n"/>
-      <c r="L53" s="31" t="n"/>
-      <c r="M53" s="31" t="n"/>
-      <c r="N53" s="31" t="n"/>
-      <c r="O53" s="31" t="n"/>
-      <c r="P53" s="31" t="n"/>
-      <c r="Q53" s="31" t="n"/>
-      <c r="R53" s="31" t="n"/>
-      <c r="S53" s="31" t="n"/>
-      <c r="T53" s="31" t="n"/>
-      <c r="U53" s="31" t="n"/>
-      <c r="V53" s="31" t="n"/>
-      <c r="W53" s="31" t="n"/>
-      <c r="X53" s="31" t="n"/>
-      <c r="Y53" s="31" t="n"/>
-      <c r="Z53" s="31" t="n"/>
-      <c r="AA53" s="31" t="n"/>
+      <c r="B53" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C53" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D53" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E53" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z53" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA53" s="31" t="inlineStr"/>
     </row>
     <row r="54" ht="13.2" customHeight="1" s="20">
-      <c r="B54" s="31" t="n"/>
-      <c r="C54" s="31" t="n"/>
-      <c r="D54" s="31" t="n"/>
-      <c r="E54" s="31" t="n"/>
-      <c r="F54" s="31" t="n"/>
-      <c r="G54" s="31" t="n"/>
-      <c r="H54" s="31" t="n"/>
-      <c r="I54" s="31" t="n"/>
-      <c r="J54" s="31" t="n"/>
-      <c r="K54" s="31" t="n"/>
-      <c r="L54" s="31" t="n"/>
-      <c r="M54" s="31" t="n"/>
-      <c r="N54" s="31" t="n"/>
-      <c r="O54" s="31" t="n"/>
-      <c r="P54" s="31" t="n"/>
-      <c r="Q54" s="31" t="n"/>
-      <c r="R54" s="31" t="n"/>
-      <c r="S54" s="31" t="n"/>
-      <c r="T54" s="31" t="n"/>
-      <c r="U54" s="31" t="n"/>
-      <c r="V54" s="31" t="n"/>
-      <c r="W54" s="31" t="n"/>
-      <c r="X54" s="31" t="n"/>
-      <c r="Y54" s="31" t="n"/>
-      <c r="Z54" s="31" t="n"/>
-      <c r="AA54" s="31" t="n"/>
+      <c r="B54" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C54" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D54" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E54" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X54" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z54" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA54" s="31" t="inlineStr"/>
     </row>
     <row r="55" ht="13.2" customHeight="1" s="20">
-      <c r="B55" s="31" t="n"/>
-      <c r="C55" s="31" t="n"/>
-      <c r="D55" s="31" t="n"/>
-      <c r="E55" s="31" t="n"/>
-      <c r="F55" s="31" t="n"/>
-      <c r="G55" s="31" t="n"/>
-      <c r="H55" s="31" t="n"/>
-      <c r="I55" s="31" t="n"/>
-      <c r="J55" s="31" t="n"/>
-      <c r="K55" s="31" t="n"/>
-      <c r="L55" s="31" t="n"/>
-      <c r="M55" s="31" t="n"/>
-      <c r="N55" s="31" t="n"/>
-      <c r="O55" s="31" t="n"/>
-      <c r="P55" s="31" t="n"/>
-      <c r="Q55" s="31" t="n"/>
-      <c r="R55" s="31" t="n"/>
-      <c r="S55" s="31" t="n"/>
-      <c r="T55" s="31" t="n"/>
-      <c r="U55" s="31" t="n"/>
-      <c r="V55" s="31" t="n"/>
-      <c r="W55" s="31" t="n"/>
-      <c r="X55" s="31" t="n"/>
-      <c r="Y55" s="31" t="n"/>
-      <c r="Z55" s="31" t="n"/>
-      <c r="AA55" s="31" t="n"/>
+      <c r="B55" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C55" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D55" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E55" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X55" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z55" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA55" s="31" t="inlineStr"/>
     </row>
     <row r="56" ht="13.2" customHeight="1" s="20">
-      <c r="B56" s="31" t="n"/>
-      <c r="C56" s="31" t="n"/>
-      <c r="D56" s="31" t="n"/>
-      <c r="E56" s="31" t="n"/>
-      <c r="F56" s="31" t="n"/>
-      <c r="G56" s="31" t="n"/>
-      <c r="H56" s="31" t="n"/>
-      <c r="I56" s="31" t="n"/>
-      <c r="J56" s="31" t="n"/>
-      <c r="K56" s="31" t="n"/>
-      <c r="L56" s="31" t="n"/>
-      <c r="M56" s="31" t="n"/>
-      <c r="N56" s="31" t="n"/>
-      <c r="O56" s="31" t="n"/>
-      <c r="P56" s="31" t="n"/>
-      <c r="Q56" s="31" t="n"/>
-      <c r="R56" s="31" t="n"/>
-      <c r="S56" s="31" t="n"/>
-      <c r="T56" s="31" t="n"/>
-      <c r="U56" s="31" t="n"/>
-      <c r="V56" s="31" t="n"/>
-      <c r="W56" s="31" t="n"/>
-      <c r="X56" s="31" t="n"/>
-      <c r="Y56" s="31" t="n"/>
-      <c r="Z56" s="31" t="n"/>
-      <c r="AA56" s="31" t="n"/>
+      <c r="B56" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D56" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E56" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z56" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA56" s="31" t="inlineStr"/>
     </row>
     <row r="57" ht="13.2" customHeight="1" s="20">
-      <c r="B57" s="31" t="n"/>
-      <c r="C57" s="31" t="n"/>
-      <c r="D57" s="31" t="n"/>
-      <c r="E57" s="31" t="n"/>
-      <c r="F57" s="31" t="n"/>
-      <c r="G57" s="31" t="n"/>
-      <c r="H57" s="31" t="n"/>
-      <c r="I57" s="31" t="n"/>
-      <c r="J57" s="31" t="n"/>
-      <c r="K57" s="31" t="n"/>
-      <c r="L57" s="31" t="n"/>
-      <c r="M57" s="31" t="n"/>
-      <c r="N57" s="31" t="n"/>
-      <c r="O57" s="31" t="n"/>
-      <c r="P57" s="31" t="n"/>
-      <c r="Q57" s="31" t="n"/>
-      <c r="R57" s="31" t="n"/>
-      <c r="S57" s="31" t="n"/>
-      <c r="T57" s="31" t="n"/>
-      <c r="U57" s="31" t="n"/>
-      <c r="V57" s="31" t="n"/>
-      <c r="W57" s="31" t="n"/>
-      <c r="X57" s="31" t="n"/>
-      <c r="Y57" s="31" t="n"/>
-      <c r="Z57" s="31" t="n"/>
-      <c r="AA57" s="31" t="n"/>
+      <c r="B57" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C57" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D57" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E57" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z57" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA57" s="31" t="inlineStr"/>
     </row>
     <row r="58" ht="13.2" customHeight="1" s="20">
-      <c r="B58" s="31" t="n"/>
-      <c r="C58" s="31" t="n"/>
-      <c r="D58" s="31" t="n"/>
-      <c r="E58" s="31" t="n"/>
-      <c r="F58" s="31" t="n"/>
-      <c r="G58" s="31" t="n"/>
-      <c r="H58" s="31" t="n"/>
-      <c r="I58" s="31" t="n"/>
-      <c r="J58" s="31" t="n"/>
-      <c r="K58" s="31" t="n"/>
-      <c r="L58" s="31" t="n"/>
-      <c r="M58" s="31" t="n"/>
-      <c r="N58" s="31" t="n"/>
-      <c r="O58" s="31" t="n"/>
-      <c r="P58" s="31" t="n"/>
-      <c r="Q58" s="31" t="n"/>
-      <c r="R58" s="31" t="n"/>
-      <c r="S58" s="31" t="n"/>
-      <c r="T58" s="31" t="n"/>
-      <c r="U58" s="31" t="n"/>
-      <c r="V58" s="31" t="n"/>
-      <c r="W58" s="31" t="n"/>
-      <c r="X58" s="31" t="n"/>
-      <c r="Y58" s="31" t="n"/>
-      <c r="Z58" s="31" t="n"/>
-      <c r="AA58" s="31" t="n"/>
+      <c r="B58" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D58" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E58" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z58" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA58" s="31" t="inlineStr"/>
     </row>
     <row r="59" ht="13.2" customHeight="1" s="20">
-      <c r="B59" s="31" t="n"/>
-      <c r="C59" s="31" t="n"/>
-      <c r="D59" s="31" t="n"/>
-      <c r="E59" s="31" t="n"/>
-      <c r="F59" s="31" t="n"/>
-      <c r="G59" s="31" t="n"/>
-      <c r="H59" s="31" t="n"/>
-      <c r="I59" s="31" t="n"/>
-      <c r="J59" s="31" t="n"/>
-      <c r="K59" s="31" t="n"/>
-      <c r="L59" s="31" t="n"/>
-      <c r="M59" s="31" t="n"/>
-      <c r="N59" s="31" t="n"/>
-      <c r="O59" s="31" t="n"/>
-      <c r="P59" s="31" t="n"/>
-      <c r="Q59" s="31" t="n"/>
-      <c r="R59" s="31" t="n"/>
-      <c r="S59" s="31" t="n"/>
-      <c r="T59" s="31" t="n"/>
-      <c r="U59" s="31" t="n"/>
-      <c r="V59" s="31" t="n"/>
-      <c r="W59" s="31" t="n"/>
-      <c r="X59" s="31" t="n"/>
-      <c r="Y59" s="31" t="n"/>
-      <c r="Z59" s="31" t="n"/>
-      <c r="AA59" s="31" t="n"/>
+      <c r="B59" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C59" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D59" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E59" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z59" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA59" s="31" t="inlineStr"/>
     </row>
     <row r="60" ht="13.2" customHeight="1" s="20">
-      <c r="B60" s="31" t="n"/>
-      <c r="C60" s="31" t="n"/>
-      <c r="D60" s="31" t="n"/>
-      <c r="E60" s="31" t="n"/>
-      <c r="F60" s="31" t="n"/>
-      <c r="G60" s="31" t="n"/>
-      <c r="H60" s="31" t="n"/>
-      <c r="I60" s="31" t="n"/>
-      <c r="J60" s="31" t="n"/>
-      <c r="K60" s="31" t="n"/>
-      <c r="L60" s="31" t="n"/>
-      <c r="M60" s="31" t="n"/>
-      <c r="N60" s="31" t="n"/>
-      <c r="O60" s="31" t="n"/>
-      <c r="P60" s="31" t="n"/>
-      <c r="Q60" s="31" t="n"/>
-      <c r="R60" s="31" t="n"/>
-      <c r="S60" s="31" t="n"/>
-      <c r="T60" s="31" t="n"/>
-      <c r="U60" s="31" t="n"/>
-      <c r="V60" s="31" t="n"/>
-      <c r="W60" s="31" t="n"/>
-      <c r="X60" s="31" t="n"/>
-      <c r="Y60" s="31" t="n"/>
-      <c r="Z60" s="31" t="n"/>
-      <c r="AA60" s="31" t="n"/>
+      <c r="B60" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C60" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D60" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E60" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z60" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA60" s="31" t="inlineStr"/>
     </row>
     <row r="61" ht="13.2" customHeight="1" s="20">
-      <c r="B61" s="31" t="n"/>
-      <c r="C61" s="31" t="n"/>
-      <c r="D61" s="31" t="n"/>
-      <c r="E61" s="31" t="n"/>
-      <c r="F61" s="31" t="n"/>
-      <c r="G61" s="31" t="n"/>
-      <c r="H61" s="31" t="n"/>
-      <c r="I61" s="31" t="n"/>
-      <c r="J61" s="31" t="n"/>
-      <c r="K61" s="31" t="n"/>
-      <c r="L61" s="31" t="n"/>
-      <c r="M61" s="31" t="n"/>
-      <c r="N61" s="31" t="n"/>
-      <c r="O61" s="31" t="n"/>
-      <c r="P61" s="31" t="n"/>
-      <c r="Q61" s="31" t="n"/>
-      <c r="R61" s="31" t="n"/>
-      <c r="S61" s="31" t="n"/>
-      <c r="T61" s="31" t="n"/>
-      <c r="U61" s="31" t="n"/>
-      <c r="V61" s="31" t="n"/>
-      <c r="W61" s="31" t="n"/>
-      <c r="X61" s="31" t="n"/>
-      <c r="Y61" s="31" t="n"/>
-      <c r="Z61" s="31" t="n"/>
-      <c r="AA61" s="31" t="n"/>
+      <c r="B61" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C61" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D61" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E61" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z61" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA61" s="31" t="inlineStr"/>
     </row>
     <row r="62" ht="13.2" customHeight="1" s="20">
-      <c r="B62" s="31" t="n"/>
-      <c r="C62" s="31" t="n"/>
-      <c r="D62" s="31" t="n"/>
-      <c r="E62" s="31" t="n"/>
-      <c r="F62" s="31" t="n"/>
-      <c r="G62" s="31" t="n"/>
-      <c r="H62" s="31" t="n"/>
-      <c r="I62" s="31" t="n"/>
-      <c r="J62" s="31" t="n"/>
-      <c r="K62" s="31" t="n"/>
-      <c r="L62" s="31" t="n"/>
-      <c r="M62" s="31" t="n"/>
-      <c r="N62" s="31" t="n"/>
-      <c r="O62" s="31" t="n"/>
-      <c r="P62" s="31" t="n"/>
-      <c r="Q62" s="31" t="n"/>
-      <c r="R62" s="31" t="n"/>
-      <c r="S62" s="31" t="n"/>
-      <c r="T62" s="31" t="n"/>
-      <c r="U62" s="31" t="n"/>
-      <c r="V62" s="31" t="n"/>
-      <c r="W62" s="31" t="n"/>
-      <c r="X62" s="31" t="n"/>
-      <c r="Y62" s="31" t="n"/>
-      <c r="Z62" s="31" t="n"/>
-      <c r="AA62" s="31" t="n"/>
+      <c r="B62" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C62" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D62" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E62" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z62" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA62" s="31" t="inlineStr"/>
     </row>
     <row r="63" ht="13.2" customHeight="1" s="20">
-      <c r="B63" s="31" t="n"/>
-      <c r="C63" s="31" t="n"/>
-      <c r="D63" s="31" t="n"/>
-      <c r="E63" s="31" t="n"/>
-      <c r="F63" s="31" t="n"/>
-      <c r="G63" s="31" t="n"/>
-      <c r="H63" s="31" t="n"/>
-      <c r="I63" s="31" t="n"/>
-      <c r="J63" s="31" t="n"/>
-      <c r="K63" s="31" t="n"/>
-      <c r="L63" s="31" t="n"/>
-      <c r="M63" s="31" t="n"/>
-      <c r="N63" s="31" t="n"/>
-      <c r="O63" s="31" t="n"/>
-      <c r="P63" s="31" t="n"/>
-      <c r="Q63" s="31" t="n"/>
-      <c r="R63" s="31" t="n"/>
-      <c r="S63" s="31" t="n"/>
-      <c r="T63" s="31" t="n"/>
-      <c r="U63" s="31" t="n"/>
-      <c r="V63" s="31" t="n"/>
-      <c r="W63" s="31" t="n"/>
-      <c r="X63" s="31" t="n"/>
-      <c r="Y63" s="31" t="n"/>
-      <c r="Z63" s="31" t="n"/>
-      <c r="AA63" s="31" t="n"/>
+      <c r="B63" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C63" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D63" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E63" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z63" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA63" s="31" t="inlineStr"/>
     </row>
     <row r="64" ht="13.2" customHeight="1" s="20">
-      <c r="B64" s="31" t="n"/>
-      <c r="C64" s="31" t="n"/>
-      <c r="D64" s="31" t="n"/>
-      <c r="E64" s="31" t="n"/>
-      <c r="F64" s="31" t="n"/>
-      <c r="G64" s="31" t="n"/>
-      <c r="H64" s="31" t="n"/>
-      <c r="I64" s="31" t="n"/>
-      <c r="J64" s="31" t="n"/>
-      <c r="K64" s="31" t="n"/>
-      <c r="L64" s="31" t="n"/>
-      <c r="M64" s="31" t="n"/>
-      <c r="N64" s="31" t="n"/>
-      <c r="O64" s="31" t="n"/>
-      <c r="P64" s="31" t="n"/>
-      <c r="Q64" s="31" t="n"/>
-      <c r="R64" s="31" t="n"/>
-      <c r="S64" s="31" t="n"/>
-      <c r="T64" s="31" t="n"/>
-      <c r="U64" s="31" t="n"/>
-      <c r="V64" s="31" t="n"/>
-      <c r="W64" s="31" t="n"/>
-      <c r="X64" s="31" t="n"/>
-      <c r="Y64" s="31" t="n"/>
-      <c r="Z64" s="31" t="n"/>
-      <c r="AA64" s="31" t="n"/>
+      <c r="B64" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C64" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D64" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E64" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z64" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA64" s="31" t="inlineStr"/>
     </row>
     <row r="65" ht="13.2" customHeight="1" s="20">
-      <c r="B65" s="31" t="n"/>
-      <c r="C65" s="31" t="n"/>
-      <c r="D65" s="31" t="n"/>
-      <c r="E65" s="31" t="n"/>
-      <c r="F65" s="31" t="n"/>
-      <c r="G65" s="31" t="n"/>
-      <c r="H65" s="31" t="n"/>
-      <c r="I65" s="31" t="n"/>
-      <c r="J65" s="31" t="n"/>
-      <c r="K65" s="31" t="n"/>
-      <c r="L65" s="31" t="n"/>
-      <c r="M65" s="31" t="n"/>
-      <c r="N65" s="31" t="n"/>
-      <c r="O65" s="31" t="n"/>
-      <c r="P65" s="31" t="n"/>
-      <c r="Q65" s="31" t="n"/>
-      <c r="R65" s="31" t="n"/>
-      <c r="S65" s="31" t="n"/>
-      <c r="T65" s="31" t="n"/>
-      <c r="U65" s="31" t="n"/>
-      <c r="V65" s="31" t="n"/>
-      <c r="W65" s="31" t="n"/>
-      <c r="X65" s="31" t="n"/>
-      <c r="Y65" s="31" t="n"/>
-      <c r="Z65" s="31" t="n"/>
-      <c r="AA65" s="31" t="n"/>
+      <c r="B65" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C65" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D65" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E65" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z65" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA65" s="31" t="inlineStr"/>
     </row>
     <row r="66" ht="13.2" customHeight="1" s="20">
-      <c r="B66" s="31" t="n"/>
-      <c r="C66" s="31" t="n"/>
-      <c r="D66" s="31" t="n"/>
-      <c r="E66" s="31" t="n"/>
-      <c r="F66" s="31" t="n"/>
-      <c r="G66" s="31" t="n"/>
-      <c r="H66" s="31" t="n"/>
-      <c r="I66" s="31" t="n"/>
-      <c r="J66" s="31" t="n"/>
-      <c r="K66" s="31" t="n"/>
-      <c r="L66" s="31" t="n"/>
-      <c r="M66" s="31" t="n"/>
-      <c r="N66" s="31" t="n"/>
-      <c r="O66" s="31" t="n"/>
-      <c r="P66" s="31" t="n"/>
-      <c r="Q66" s="31" t="n"/>
-      <c r="R66" s="31" t="n"/>
-      <c r="S66" s="31" t="n"/>
-      <c r="T66" s="31" t="n"/>
-      <c r="U66" s="31" t="n"/>
-      <c r="V66" s="31" t="n"/>
-      <c r="W66" s="31" t="n"/>
-      <c r="X66" s="31" t="n"/>
-      <c r="Y66" s="31" t="n"/>
-      <c r="Z66" s="31" t="n"/>
-      <c r="AA66" s="31" t="n"/>
+      <c r="B66" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C66" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D66" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E66" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z66" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA66" s="31" t="inlineStr"/>
     </row>
     <row r="67" ht="13.2" customHeight="1" s="20">
-      <c r="B67" s="31" t="n"/>
-      <c r="C67" s="31" t="n"/>
-      <c r="D67" s="31" t="n"/>
-      <c r="E67" s="31" t="n"/>
-      <c r="F67" s="31" t="n"/>
-      <c r="G67" s="31" t="n"/>
-      <c r="H67" s="31" t="n"/>
-      <c r="I67" s="31" t="n"/>
-      <c r="J67" s="31" t="n"/>
-      <c r="K67" s="31" t="n"/>
-      <c r="L67" s="31" t="n"/>
-      <c r="M67" s="31" t="n"/>
-      <c r="N67" s="31" t="n"/>
-      <c r="O67" s="31" t="n"/>
-      <c r="P67" s="31" t="n"/>
-      <c r="Q67" s="31" t="n"/>
-      <c r="R67" s="31" t="n"/>
-      <c r="S67" s="31" t="n"/>
-      <c r="T67" s="31" t="n"/>
-      <c r="U67" s="31" t="n"/>
-      <c r="V67" s="31" t="n"/>
-      <c r="W67" s="31" t="n"/>
-      <c r="X67" s="31" t="n"/>
-      <c r="Y67" s="31" t="n"/>
-      <c r="Z67" s="31" t="n"/>
-      <c r="AA67" s="31" t="n"/>
+      <c r="B67" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C67" s="31" t="inlineStr">
+        <is>
+          <t>戸建住宅:1</t>
+        </is>
+      </c>
+      <c r="D67" s="31" t="inlineStr">
+        <is>
+          <t>地上のみ:1</t>
+        </is>
+      </c>
+      <c r="E67" s="31" t="inlineStr">
+        <is>
+          <t>浸水:1</t>
+        </is>
+      </c>
+      <c r="F67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X67" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="31" t="inlineStr">
+        <is>
+          <t>鉱業、採石業、砂利採取業:1</t>
+        </is>
+      </c>
+      <c r="Z67" s="31" t="inlineStr">
+        <is>
+          <t>住居:1</t>
+        </is>
+      </c>
+      <c r="AA67" s="31" t="inlineStr"/>
     </row>
     <row r="68" ht="13.2" customHeight="1" s="20">
       <c r="B68" s="31" t="n"/>
@@ -31202,7 +32691,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -32017,11 +33506,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -32937,6 +34426,1015 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:B109"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P30" activeCellId="0" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="13.2" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>天塩川:101</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>留萌川:102</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>石狩川:103</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>尻別川:104</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>後志利別川:105</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>鵡川:106</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>沙流川:107</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>十勝川:108</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>釧路川:109</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>網走川:110</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>常呂川:111</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>湧別川:112</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>渚滑川:113</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>阿武隈川:201</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>名取川:202</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>鳴瀬川:203</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>北上川:204</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>馬淵川:205</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>高瀬川:206</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>岩木川:207</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>米代川:208</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>雄物川:209</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>子吉川:210</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>最上川:211</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>赤川:212</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>久慈川:301</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>那珂川:302</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>利根川:303</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>荒川:304</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>多摩川:305</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>鶴見川:306</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>相模川:307</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>富士川:308</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>荒川:401</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>阿賀野川:402</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>信濃川:403</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>関川:404</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>姫川:405</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>黒部川:406</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>常願寺川:407</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>神通川:408</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>庄川:409</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>小矢部川:410</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>手取川:411</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>梯川:412</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KASEN!$B$1$B$0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>狩野川:501</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>安倍川:502</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>大井川:503</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>菊川:504</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>天竜川:505</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>豊川:506</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>矢作川:507</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>庄内川:508</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>木曽川:509</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>鈴鹿川:510</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>雲出川:511</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>櫛田川:512</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>宮川:513</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>新宮川:601</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>紀の川:602</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>大和川:603</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>淀川:604</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>加古川:605</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>揖保川:606</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>九頭竜川:607</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>北川:608</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>由良川:609</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>円山川:610</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>千代川:701</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>天神川:702</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>日野川:703</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>斐伊川:704</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>江の川:705</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>高津川:706</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>佐波川:707</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>小瀬川:708</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>太田川:709</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>芦田川:710</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>高梁川:711</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>旭川:712</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>吉井川:713</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>重信川:801</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>肱川:802</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>渡川:803</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>仁淀川:804</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>物部川:805</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>那賀川:806</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>吉野川:807</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>土器川:808</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>遠賀川:901</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>松浦川:902</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>本明川:903</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>六角川:904</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>嘉瀬川:905</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>筑後川:906</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>矢部川:907</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>菊池川:908</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>白川:909</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>緑川:910</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>球磨川:911</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>川内川:912</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>肝属川:913</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>大淀川:914</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>小丸川:915</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>五ヶ瀬川:916</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>番匠川:917</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>大野川:918</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>大分川:919</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>山国川:920</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">

--- a/src/static/download_ippan_chosa.xlsx
+++ b/src/static/download_ippan_chosa.xlsx
@@ -778,6 +778,10 @@
       <c r="Y4" s="19" t="n"/>
       <c r="Z4" s="19" t="n"/>
       <c r="AA4" s="25" t="n"/>
+      <c r="AD4">
+        <f>VLOOKUP(B10,KASEN_VLOOK!A:B,2,0)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="13.2" customHeight="1" s="20">
       <c r="B5" s="26" t="inlineStr">
@@ -3240,7 +3244,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA44" s="31" t="inlineStr"/>
+      <c r="AA44" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="13.2" customHeight="1" s="20">
       <c r="B45" s="31" t="inlineStr">
@@ -3330,7 +3338,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA45" s="31" t="inlineStr"/>
+      <c r="AA45" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="13.2" customHeight="1" s="20">
       <c r="B46" s="31" t="inlineStr">
@@ -3420,7 +3432,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA46" s="31" t="inlineStr"/>
+      <c r="AA46" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="13.2" customHeight="1" s="20">
       <c r="B47" s="31" t="inlineStr">
@@ -3510,7 +3526,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA47" s="31" t="inlineStr"/>
+      <c r="AA47" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="13.2" customHeight="1" s="20">
       <c r="B48" s="31" t="inlineStr">
@@ -3600,7 +3620,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA48" s="31" t="inlineStr"/>
+      <c r="AA48" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="13.2" customHeight="1" s="20">
       <c r="B49" s="31" t="inlineStr">
@@ -3690,7 +3714,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA49" s="31" t="inlineStr"/>
+      <c r="AA49" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="13.2" customHeight="1" s="20">
       <c r="B50" s="31" t="inlineStr">
@@ -3780,7 +3808,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA50" s="31" t="inlineStr"/>
+      <c r="AA50" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="13.2" customHeight="1" s="20">
       <c r="B51" s="31" t="inlineStr">
@@ -3870,7 +3902,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA51" s="31" t="inlineStr"/>
+      <c r="AA51" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="13.2" customHeight="1" s="20">
       <c r="B52" s="31" t="inlineStr">
@@ -3960,7 +3996,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA52" s="31" t="inlineStr"/>
+      <c r="AA52" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="13.2" customHeight="1" s="20">
       <c r="B53" s="31" t="inlineStr">
@@ -4050,7 +4090,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA53" s="31" t="inlineStr"/>
+      <c r="AA53" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="13.2" customHeight="1" s="20">
       <c r="B54" s="31" t="inlineStr">
@@ -4140,7 +4184,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA54" s="31" t="inlineStr"/>
+      <c r="AA54" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="13.2" customHeight="1" s="20">
       <c r="B55" s="31" t="inlineStr">
@@ -4230,7 +4278,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA55" s="31" t="inlineStr"/>
+      <c r="AA55" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="13.2" customHeight="1" s="20">
       <c r="B56" s="31" t="inlineStr">
@@ -4320,7 +4372,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA56" s="31" t="inlineStr"/>
+      <c r="AA56" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="13.2" customHeight="1" s="20">
       <c r="B57" s="31" t="inlineStr">
@@ -4410,7 +4466,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA57" s="31" t="inlineStr"/>
+      <c r="AA57" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="13.2" customHeight="1" s="20">
       <c r="B58" s="31" t="inlineStr">
@@ -4500,7 +4560,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA58" s="31" t="inlineStr"/>
+      <c r="AA58" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="13.2" customHeight="1" s="20">
       <c r="B59" s="31" t="inlineStr">
@@ -4590,7 +4654,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA59" s="31" t="inlineStr"/>
+      <c r="AA59" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="13.2" customHeight="1" s="20">
       <c r="B60" s="31" t="inlineStr">
@@ -4680,7 +4748,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA60" s="31" t="inlineStr"/>
+      <c r="AA60" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="13.2" customHeight="1" s="20">
       <c r="B61" s="31" t="inlineStr">
@@ -4770,7 +4842,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA61" s="31" t="inlineStr"/>
+      <c r="AA61" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="13.2" customHeight="1" s="20">
       <c r="B62" s="31" t="inlineStr">
@@ -4860,7 +4936,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA62" s="31" t="inlineStr"/>
+      <c r="AA62" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="13.2" customHeight="1" s="20">
       <c r="B63" s="31" t="inlineStr">
@@ -4950,7 +5030,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA63" s="31" t="inlineStr"/>
+      <c r="AA63" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="13.2" customHeight="1" s="20">
       <c r="B64" s="31" t="inlineStr">
@@ -5040,7 +5124,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA64" s="31" t="inlineStr"/>
+      <c r="AA64" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="13.2" customHeight="1" s="20">
       <c r="B65" s="31" t="inlineStr">
@@ -5130,7 +5218,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA65" s="31" t="inlineStr"/>
+      <c r="AA65" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="13.2" customHeight="1" s="20">
       <c r="B66" s="31" t="inlineStr">
@@ -5220,7 +5312,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA66" s="31" t="inlineStr"/>
+      <c r="AA66" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="13.2" customHeight="1" s="20">
       <c r="B67" s="31" t="inlineStr">
@@ -5310,7 +5406,11 @@
           <t>住居:1</t>
         </is>
       </c>
-      <c r="AA67" s="31" t="inlineStr"/>
+      <c r="AA67" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="13.2" customHeight="1" s="20">
       <c r="B68" s="31" t="n"/>
@@ -32085,7 +32185,7 @@
       <formula1>SUIKEI_TYPE!$B$1:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>KASEN!$B$1:$B$100</formula1>
+      <formula1>=INDIRECT(AD4)</formula1>
     </dataValidation>
     <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>KASEN_TYPE!$B$1:$B$7</formula1>
@@ -34448,7 +34548,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$B$1:$B$10</t>
         </is>
       </c>
     </row>
@@ -34460,7 +34560,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$G$1:$G$10</t>
         </is>
       </c>
     </row>
@@ -34472,7 +34572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$L$1:$L$10</t>
         </is>
       </c>
     </row>
@@ -34484,7 +34584,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$Q$1:$Q$10</t>
         </is>
       </c>
     </row>
@@ -34496,7 +34596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$V$1:$V$10</t>
         </is>
       </c>
     </row>
@@ -34508,7 +34608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$AA$1:$AA$10</t>
         </is>
       </c>
     </row>
@@ -34520,7 +34620,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$AF$1:$AF$10</t>
         </is>
       </c>
     </row>
@@ -34532,7 +34632,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$AK$1:$AK$10</t>
         </is>
       </c>
     </row>
@@ -34544,7 +34644,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$AP$1:$AP$0</t>
         </is>
       </c>
     </row>
@@ -34556,7 +34656,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$AU$1:$AU$0</t>
         </is>
       </c>
     </row>
@@ -34568,7 +34668,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$AZ$1:$AZ$0</t>
         </is>
       </c>
     </row>
@@ -34580,7 +34680,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$BE$1:$BE$0</t>
         </is>
       </c>
     </row>
@@ -34592,7 +34692,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$BJ$1:$BJ$0</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34704,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$BO$1:$BO$10</t>
         </is>
       </c>
     </row>
@@ -34616,7 +34716,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$BT$1:$BT$10</t>
         </is>
       </c>
     </row>
@@ -34628,7 +34728,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$BY$1:$BY$0</t>
         </is>
       </c>
     </row>
@@ -34640,7 +34740,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$CD$1:$CD$0</t>
         </is>
       </c>
     </row>
@@ -34652,7 +34752,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$CI$1:$CI$0</t>
         </is>
       </c>
     </row>
@@ -34664,7 +34764,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$CN$1:$CN$0</t>
         </is>
       </c>
     </row>
@@ -34676,7 +34776,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$CS$1:$CS$0</t>
         </is>
       </c>
     </row>
@@ -34688,7 +34788,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$CX$1:$CX$0</t>
         </is>
       </c>
     </row>
@@ -34700,7 +34800,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$DC$1:$DC$0</t>
         </is>
       </c>
     </row>
@@ -34712,7 +34812,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$DH$1:$DH$0</t>
         </is>
       </c>
     </row>
@@ -34724,7 +34824,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$DM$1:$DM$0</t>
         </is>
       </c>
     </row>
@@ -34736,7 +34836,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$DR$1:$DR$0</t>
         </is>
       </c>
     </row>
@@ -34748,7 +34848,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$DW$1:$DW$0</t>
         </is>
       </c>
     </row>
@@ -34760,7 +34860,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$EB$1:$EB$0</t>
         </is>
       </c>
     </row>
@@ -34772,7 +34872,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$EG$1:$EG$0</t>
         </is>
       </c>
     </row>
@@ -34784,7 +34884,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$EL$1:$EL$0</t>
         </is>
       </c>
     </row>
@@ -34796,7 +34896,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$EQ$1:$EQ$0</t>
         </is>
       </c>
     </row>
@@ -34808,7 +34908,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$EV$1:$EV$0</t>
         </is>
       </c>
     </row>
@@ -34820,7 +34920,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$FA$1:$FA$0</t>
         </is>
       </c>
     </row>
@@ -34832,7 +34932,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$FF$1:$FF$0</t>
         </is>
       </c>
     </row>
@@ -34844,7 +34944,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$FK$1:$FK$0</t>
         </is>
       </c>
     </row>
@@ -34856,7 +34956,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$FP$1:$FP$0</t>
         </is>
       </c>
     </row>
@@ -34868,7 +34968,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$FU$1:$FU$0</t>
         </is>
       </c>
     </row>
@@ -34880,7 +34980,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$FZ$1:$FZ$0</t>
         </is>
       </c>
     </row>
@@ -34892,7 +34992,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$GE$1:$GE$0</t>
         </is>
       </c>
     </row>
@@ -34904,7 +35004,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$GJ$1:$GJ$0</t>
         </is>
       </c>
     </row>
@@ -34916,7 +35016,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$GO$1:$GO$0</t>
         </is>
       </c>
     </row>
@@ -34928,7 +35028,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$GT$1:$GT$0</t>
         </is>
       </c>
     </row>
@@ -34940,7 +35040,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$GY$1:$GY$0</t>
         </is>
       </c>
     </row>
@@ -34952,7 +35052,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$HD$1:$HD$0</t>
         </is>
       </c>
     </row>
@@ -34964,7 +35064,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$HI$1:$HI$0</t>
         </is>
       </c>
     </row>
@@ -34976,7 +35076,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KASEN!$B$1$B$0</t>
+          <t>KASEN!$HN$1:$HN$0</t>
         </is>
       </c>
     </row>
@@ -34986,6 +35086,11 @@
           <t>狩野川:501</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KASEN!$HS$1:$HS$0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34993,6 +35098,11 @@
           <t>安倍川:502</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>KASEN!$HX$1:$HX$0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35000,6 +35110,11 @@
           <t>大井川:503</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KASEN!$IC$1:$IC$0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35007,6 +35122,11 @@
           <t>菊川:504</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>KASEN!$IH$1:$IH$0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35014,6 +35134,11 @@
           <t>天竜川:505</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KASEN!$IM$1:$IM$0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35021,6 +35146,11 @@
           <t>豊川:506</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>KASEN!$IR$1:$IR$0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35028,6 +35158,11 @@
           <t>矢作川:507</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>KASEN!$IW$1:$IW$0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -35035,6 +35170,11 @@
           <t>庄内川:508</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>KASEN!$JB$1:$JB$0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -35042,6 +35182,11 @@
           <t>木曽川:509</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>KASEN!$JG$1:$JG$0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35049,6 +35194,11 @@
           <t>鈴鹿川:510</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>KASEN!$JL$1:$JL$0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35056,6 +35206,11 @@
           <t>雲出川:511</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>KASEN!$JQ$1:$JQ$0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35063,6 +35218,11 @@
           <t>櫛田川:512</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>KASEN!$JV$1:$JV$0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35070,6 +35230,11 @@
           <t>宮川:513</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>KASEN!$KA$1:$KA$0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -35077,6 +35242,11 @@
           <t>新宮川:601</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KASEN!$KF$1:$KF$0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -35084,6 +35254,11 @@
           <t>紀の川:602</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KASEN!$KK$1:$KK$0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -35091,6 +35266,11 @@
           <t>大和川:603</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KASEN!$KP$1:$KP$0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -35098,6 +35278,11 @@
           <t>淀川:604</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KASEN!$KU$1:$KU$0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -35105,6 +35290,11 @@
           <t>加古川:605</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KASEN!$KZ$1:$KZ$0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -35112,6 +35302,11 @@
           <t>揖保川:606</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>KASEN!$LE$1:$LE$0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -35119,6 +35314,11 @@
           <t>九頭竜川:607</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KASEN!$LJ$1:$LJ$0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -35126,6 +35326,11 @@
           <t>北川:608</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KASEN!$LO$1:$LO$0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -35133,6 +35338,11 @@
           <t>由良川:609</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>KASEN!$LT$1:$LT$0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -35140,6 +35350,11 @@
           <t>円山川:610</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>KASEN!$LY$1:$LY$0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -35147,6 +35362,11 @@
           <t>千代川:701</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>KASEN!$MD$1:$MD$0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -35154,6 +35374,11 @@
           <t>天神川:702</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>KASEN!$MI$1:$MI$0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -35161,6 +35386,11 @@
           <t>日野川:703</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>KASEN!$MN$1:$MN$0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -35168,6 +35398,11 @@
           <t>斐伊川:704</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>KASEN!$MS$1:$MS$0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -35175,6 +35410,11 @@
           <t>江の川:705</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>KASEN!$MX$1:$MX$0</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -35182,6 +35422,11 @@
           <t>高津川:706</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KASEN!$NC$1:$NC$0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -35189,6 +35434,11 @@
           <t>佐波川:707</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KASEN!$NH$1:$NH$0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -35196,6 +35446,11 @@
           <t>小瀬川:708</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>KASEN!$NM$1:$NM$0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -35203,6 +35458,11 @@
           <t>太田川:709</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>KASEN!$NR$1:$NR$0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -35210,6 +35470,11 @@
           <t>芦田川:710</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>KASEN!$NW$1:$NW$0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -35217,6 +35482,11 @@
           <t>高梁川:711</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>KASEN!$OB$1:$OB$0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -35224,6 +35494,11 @@
           <t>旭川:712</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>KASEN!$OG$1:$OG$0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -35231,6 +35506,11 @@
           <t>吉井川:713</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>KASEN!$OL$1:$OL$0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -35238,6 +35518,11 @@
           <t>重信川:801</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>KASEN!$OQ$1:$OQ$0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -35245,6 +35530,11 @@
           <t>肱川:802</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>KASEN!$OV$1:$OV$0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -35252,6 +35542,11 @@
           <t>渡川:803</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>KASEN!$PA$1:$PA$0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -35259,6 +35554,11 @@
           <t>仁淀川:804</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KASEN!$PF$1:$PF$0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -35266,6 +35566,11 @@
           <t>物部川:805</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>KASEN!$PK$1:$PK$0</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -35273,6 +35578,11 @@
           <t>那賀川:806</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>KASEN!$PP$1:$PP$0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -35280,6 +35590,11 @@
           <t>吉野川:807</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>KASEN!$PU$1:$PU$0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -35287,6 +35602,11 @@
           <t>土器川:808</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>KASEN!$PZ$1:$PZ$0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -35294,6 +35614,11 @@
           <t>遠賀川:901</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>KASEN!$QE$1:$QE$0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -35301,6 +35626,11 @@
           <t>松浦川:902</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>KASEN!$QJ$1:$QJ$0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -35308,6 +35638,11 @@
           <t>本明川:903</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>KASEN!$QO$1:$QO$0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -35315,6 +35650,11 @@
           <t>六角川:904</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>KASEN!$QT$1:$QT$0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -35322,6 +35662,11 @@
           <t>嘉瀬川:905</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>KASEN!$QY$1:$QY$0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -35329,6 +35674,11 @@
           <t>筑後川:906</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>KASEN!$RD$1:$RD$0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -35336,6 +35686,11 @@
           <t>矢部川:907</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>KASEN!$RI$1:$RI$0</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -35343,6 +35698,11 @@
           <t>菊池川:908</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>KASEN!$RN$1:$RN$0</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -35350,6 +35710,11 @@
           <t>白川:909</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>KASEN!$RS$1:$RS$0</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -35357,6 +35722,11 @@
           <t>緑川:910</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>KASEN!$RX$1:$RX$0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -35364,6 +35734,11 @@
           <t>球磨川:911</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>KASEN!$SC$1:$SC$0</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -35371,6 +35746,11 @@
           <t>川内川:912</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>KASEN!$SH$1:$SH$0</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -35378,6 +35758,11 @@
           <t>肝属川:913</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>KASEN!$SM$1:$SM$0</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -35385,6 +35770,11 @@
           <t>大淀川:914</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>KASEN!$SR$1:$SR$0</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -35392,6 +35782,11 @@
           <t>小丸川:915</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>KASEN!$SW$1:$SW$0</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -35399,6 +35794,11 @@
           <t>五ヶ瀬川:916</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>KASEN!$TB$1:$TB$0</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -35406,6 +35806,11 @@
           <t>番匠川:917</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>KASEN!$TG$1:$TG$0</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -35413,6 +35818,11 @@
           <t>大野川:918</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>KASEN!$TL$1:$TL$0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -35420,11 +35830,21 @@
           <t>大分川:919</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>KASEN!$TQ$1:$TQ$0</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
           <t>山国川:920</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>KASEN!$TV$1:$TV$0</t>
         </is>
       </c>
     </row>
@@ -36705,7 +37125,7 @@
         <v>208613</v>
       </c>
       <c r="FD1" t="n">
-        <v>130482</v>
+        <v>572990000</v>
       </c>
       <c r="FE1" t="inlineStr">
         <is>
@@ -36743,6 +37163,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM1" t="n">
+        <v>130482</v>
+      </c>
       <c r="FN1" t="n">
         <v>15320000</v>
       </c>
@@ -37691,7 +38114,7 @@
         <v>61713</v>
       </c>
       <c r="FD2" t="n">
-        <v>120751</v>
+        <v>690680000</v>
       </c>
       <c r="FE2" t="inlineStr">
         <is>
@@ -37729,6 +38152,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM2" t="n">
+        <v>120751</v>
+      </c>
       <c r="FN2" t="n">
         <v>39420000</v>
       </c>
@@ -38677,7 +39103,7 @@
         <v>171485</v>
       </c>
       <c r="FD3" t="n">
-        <v>138190</v>
+        <v>624360000</v>
       </c>
       <c r="FE3" t="inlineStr">
         <is>
@@ -38715,6 +39141,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM3" t="n">
+        <v>138190</v>
+      </c>
       <c r="FN3" t="n">
         <v>26460000</v>
       </c>
@@ -39663,7 +40092,7 @@
         <v>50015</v>
       </c>
       <c r="FD4" t="n">
-        <v>186985</v>
+        <v>733190000</v>
       </c>
       <c r="FE4" t="inlineStr">
         <is>
@@ -39701,6 +40130,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM4" t="n">
+        <v>186985</v>
+      </c>
       <c r="FN4" t="n">
         <v>35610000</v>
       </c>
@@ -40649,7 +41081,7 @@
         <v>37996</v>
       </c>
       <c r="FD5" t="n">
-        <v>233733</v>
+        <v>435710000</v>
       </c>
       <c r="FE5" t="inlineStr">
         <is>
@@ -40687,6 +41119,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM5" t="n">
+        <v>233733</v>
+      </c>
       <c r="FN5" t="n">
         <v>117030000</v>
       </c>
@@ -41635,7 +42070,7 @@
         <v>41836</v>
       </c>
       <c r="FD6" t="n">
-        <v>149633</v>
+        <v>420930000</v>
       </c>
       <c r="FE6" t="inlineStr">
         <is>
@@ -41673,6 +42108,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM6" t="n">
+        <v>149633</v>
+      </c>
       <c r="FN6" t="n">
         <v>353330000</v>
       </c>
@@ -42621,7 +43059,7 @@
         <v>25697</v>
       </c>
       <c r="FD7" t="n">
-        <v>78789</v>
+        <v>268240000</v>
       </c>
       <c r="FE7" t="inlineStr">
         <is>
@@ -42659,6 +43097,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM7" t="n">
+        <v>78789</v>
+      </c>
       <c r="FN7" t="n">
         <v>94080000</v>
       </c>
@@ -43607,7 +44048,7 @@
         <v>41917</v>
       </c>
       <c r="FD8" t="n">
-        <v>135280</v>
+        <v>553180000</v>
       </c>
       <c r="FE8" t="inlineStr">
         <is>
@@ -43645,6 +44086,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM8" t="n">
+        <v>135280</v>
+      </c>
       <c r="FN8" t="n">
         <v>225430000</v>
       </c>
@@ -44593,7 +45037,7 @@
         <v>14456</v>
       </c>
       <c r="FD9" t="n">
-        <v>239973</v>
+        <v>368010000</v>
       </c>
       <c r="FE9" t="inlineStr">
         <is>
@@ -44631,6 +45075,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM9" t="n">
+        <v>239973</v>
+      </c>
       <c r="FN9" t="n">
         <v>352810000</v>
       </c>
@@ -45579,7 +46026,7 @@
         <v>5534</v>
       </c>
       <c r="FD10" t="n">
-        <v>28644</v>
+        <v>242880000</v>
       </c>
       <c r="FE10" t="inlineStr">
         <is>
@@ -45617,6 +46064,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM10" t="n">
+        <v>28644</v>
+      </c>
       <c r="FN10" t="n">
         <v>118230000</v>
       </c>
@@ -46565,7 +47015,7 @@
         <v>3900</v>
       </c>
       <c r="FD11" t="n">
-        <v>100509</v>
+        <v>106430000</v>
       </c>
       <c r="FE11" t="inlineStr">
         <is>
@@ -46603,6 +47053,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM11" t="n">
+        <v>100509</v>
+      </c>
       <c r="FN11" t="n">
         <v>471510000</v>
       </c>
@@ -47551,7 +48004,7 @@
         <v>5351</v>
       </c>
       <c r="FD12" t="n">
-        <v>145202</v>
+        <v>282920000</v>
       </c>
       <c r="FE12" t="inlineStr">
         <is>
@@ -47589,6 +48042,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM12" t="n">
+        <v>145202</v>
+      </c>
       <c r="FN12" t="n">
         <v>285110000</v>
       </c>
@@ -48537,7 +48993,7 @@
         <v>11959</v>
       </c>
       <c r="FD13" t="n">
-        <v>461357</v>
+        <v>419290000</v>
       </c>
       <c r="FE13" t="inlineStr">
         <is>
@@ -48575,6 +49031,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM13" t="n">
+        <v>461357</v>
+      </c>
       <c r="FN13" t="n">
         <v>518140000</v>
       </c>
@@ -49523,7 +49982,7 @@
         <v>8427</v>
       </c>
       <c r="FD14" t="n">
-        <v>42563</v>
+        <v>307030000</v>
       </c>
       <c r="FE14" t="inlineStr">
         <is>
@@ -49561,6 +50020,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM14" t="n">
+        <v>42563</v>
+      </c>
       <c r="FN14" t="n">
         <v>195750000</v>
       </c>
@@ -50509,7 +50971,7 @@
         <v>6810</v>
       </c>
       <c r="FD15" t="n">
-        <v>56605</v>
+        <v>336500000</v>
       </c>
       <c r="FE15" t="inlineStr">
         <is>
@@ -50547,6 +51009,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM15" t="n">
+        <v>56605</v>
+      </c>
       <c r="FN15" t="n">
         <v>778140000</v>
       </c>
@@ -51474,7 +51939,7 @@
         <v>2374</v>
       </c>
       <c r="FD16" t="n">
-        <v>40244</v>
+        <v>33440000</v>
       </c>
       <c r="FE16" t="inlineStr">
         <is>
@@ -51512,6 +51977,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM16" t="n">
+        <v>40244</v>
+      </c>
       <c r="FN16" t="n">
         <v>1246490000</v>
       </c>
@@ -52439,7 +52907,7 @@
         <v>3136</v>
       </c>
       <c r="FD17" t="n">
-        <v>28836</v>
+        <v>55960000</v>
       </c>
       <c r="FE17" t="inlineStr">
         <is>
@@ -52477,6 +52945,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM17" t="n">
+        <v>28836</v>
+      </c>
       <c r="FN17" t="n">
         <v>78660000</v>
       </c>
@@ -53383,7 +53854,7 @@
         <v>657</v>
       </c>
       <c r="FD18" t="n">
-        <v>190135</v>
+        <v>13700000</v>
       </c>
       <c r="FE18" t="inlineStr">
         <is>
@@ -53421,6 +53892,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM18" t="n">
+        <v>190135</v>
+      </c>
       <c r="FN18" t="n">
         <v>635160000</v>
       </c>
@@ -54306,7 +54780,7 @@
         <v>15521</v>
       </c>
       <c r="FD19" t="n">
-        <v>114038</v>
+        <v>242620000</v>
       </c>
       <c r="FE19" t="inlineStr">
         <is>
@@ -54344,6 +54818,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM19" t="n">
+        <v>114038</v>
+      </c>
       <c r="FN19" t="n">
         <v>489480000</v>
       </c>
@@ -55126,9 +55603,6 @@
       <c r="ET20" t="n">
         <v>113620000</v>
       </c>
-      <c r="FD20" t="n">
-        <v>31487</v>
-      </c>
       <c r="FE20" t="inlineStr">
         <is>
           <t>334235</t>
@@ -55165,6 +55639,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM20" t="n">
+        <v>31487</v>
+      </c>
       <c r="FN20" t="n">
         <v>537750000</v>
       </c>
@@ -55926,9 +56403,6 @@
       <c r="ET21" t="n">
         <v>120280000</v>
       </c>
-      <c r="FD21" t="n">
-        <v>27031</v>
-      </c>
       <c r="FE21" t="inlineStr">
         <is>
           <t>334456</t>
@@ -55965,6 +56439,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM21" t="n">
+        <v>27031</v>
+      </c>
       <c r="FN21" t="n">
         <v>100710000</v>
       </c>
@@ -56684,9 +57161,6 @@
       <c r="ET22" t="n">
         <v>331590000</v>
       </c>
-      <c r="FD22" t="n">
-        <v>50442</v>
-      </c>
       <c r="FE22" t="inlineStr">
         <is>
           <t>334618</t>
@@ -56723,6 +57197,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM22" t="n">
+        <v>50442</v>
+      </c>
       <c r="FN22" t="n">
         <v>10410000</v>
       </c>
@@ -57421,9 +57898,6 @@
       <c r="ET23" t="n">
         <v>200980000</v>
       </c>
-      <c r="FD23" t="n">
-        <v>28475</v>
-      </c>
       <c r="FE23" t="inlineStr">
         <is>
           <t>335860</t>
@@ -57460,6 +57934,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM23" t="n">
+        <v>28475</v>
+      </c>
       <c r="FN23" t="n">
         <v>13790000</v>
       </c>
@@ -58158,9 +58635,6 @@
       <c r="ET24" t="n">
         <v>57370000</v>
       </c>
-      <c r="FD24" t="n">
-        <v>24533</v>
-      </c>
       <c r="FE24" t="inlineStr">
         <is>
           <t>336068</t>
@@ -58197,6 +58671,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM24" t="n">
+        <v>24533</v>
+      </c>
       <c r="FN24" t="n">
         <v>33760000</v>
       </c>
@@ -58895,9 +59372,6 @@
       <c r="ET25" t="n">
         <v>174450000</v>
       </c>
-      <c r="FD25" t="n">
-        <v>13262</v>
-      </c>
       <c r="FE25" t="inlineStr">
         <is>
           <t>336220</t>
@@ -58934,6 +59408,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM25" t="n">
+        <v>13262</v>
+      </c>
       <c r="FN25" t="n">
         <v>15690000</v>
       </c>
@@ -59569,9 +60046,6 @@
       <c r="ET26" t="n">
         <v>183310000</v>
       </c>
-      <c r="FD26" t="n">
-        <v>7255</v>
-      </c>
       <c r="FE26" t="inlineStr">
         <is>
           <t>336238</t>
@@ -59608,6 +60082,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM26" t="n">
+        <v>7255</v>
+      </c>
       <c r="FN26" t="n">
         <v>341890000</v>
       </c>
@@ -60243,9 +60720,6 @@
       <c r="ET27" t="n">
         <v>5810000</v>
       </c>
-      <c r="FD27" t="n">
-        <v>19969</v>
-      </c>
       <c r="FE27" t="inlineStr">
         <is>
           <t>336432</t>
@@ -60282,6 +60756,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM27" t="n">
+        <v>19969</v>
+      </c>
       <c r="FN27" t="n">
         <v>646200000</v>
       </c>
@@ -60875,9 +61352,6 @@
       <c r="ET28" t="n">
         <v>294230000</v>
       </c>
-      <c r="FD28" t="n">
-        <v>8448</v>
-      </c>
       <c r="FE28" t="inlineStr">
         <is>
           <t>336637</t>
@@ -60914,6 +61388,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM28" t="n">
+        <v>8448</v>
+      </c>
       <c r="FN28" t="n">
         <v>43110000</v>
       </c>
@@ -61507,9 +61984,6 @@
       <c r="ET29" t="n">
         <v>48200000</v>
       </c>
-      <c r="FD29" t="n">
-        <v>17549</v>
-      </c>
       <c r="FE29" t="inlineStr">
         <is>
           <t>336661</t>
@@ -61546,6 +62020,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="FM29" t="n">
+        <v>17549</v>
+      </c>
       <c r="FN29" t="n">
         <v>278140000</v>
       </c>
@@ -62118,9 +62595,6 @@
       <c r="ET30" t="n">
         <v>135670000</v>
       </c>
-      <c r="FD30" t="n">
-        <v>10350</v>
-      </c>
       <c r="FE30" t="inlineStr">
         <is>
           <t>336815</t>
@@ -62156,6 +62630,9 @@
         <is>
           <t>34</t>
         </is>
+      </c>
+      <c r="FM30" t="n">
+        <v>10350</v>
       </c>
       <c r="FN30" t="n">
         <v>381980000</v>
@@ -78185,7 +78662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
@@ -78211,7 +78688,187 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>河川名_11:11</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>河川名_21:21</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>河川名_31:31</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>河川名_41:41</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>河川名_51:51</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>河川名_61:61</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>河川名_71:71</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>河川名_81:81</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>河川名_91:91</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78233,7 +78890,187 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>河川名_12:12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>河川名_22:22</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>河川名_32:32</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>河川名_42:42</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>河川名_52:52</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>河川名_62:62</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>河川名_72:72</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>河川名_82:82</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>河川名_92:92</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78255,7 +79092,187 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>河川名_13:13</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>河川名_23:23</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>河川名_33:33</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>河川名_43:43</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>河川名_53:53</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>河川名_63:63</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>河川名_73:73</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>河川名_83:83</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>河川名_93:93</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78277,7 +79294,187 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>河川名_14:14</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>河川名_24:24</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>河川名_34:34</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>河川名_44:44</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>河川名_54:54</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>河川名_64:64</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>河川名_74:74</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>河川名_84:84</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>河川名_94:94</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78299,7 +79496,187 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>河川名_15:15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>河川名_25:25</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>河川名_35:35</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>河川名_45:45</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>河川名_55:55</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>河川名_65:65</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>河川名_75:75</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>河川名_85:85</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>河川名_95:95</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78321,7 +79698,187 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>河川名_16:16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>河川名_26:26</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>河川名_36:36</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>河川名_46:46</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>河川名_56:56</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>河川名_66:66</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>河川名_76:76</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>河川名_86:86</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>河川名_96:96</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78343,7 +79900,187 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>河川名_17:17</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>河川名_27:27</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>河川名_37:37</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>河川名_47:47</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>河川名_57:57</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>河川名_67:67</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>河川名_77:77</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>河川名_87:87</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>河川名_97:97</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78365,7 +80102,187 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>河川名_18:18</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>河川名_28:28</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>河川名_38:38</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>河川名_48:48</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>河川名_58:58</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>河川名_68:68</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>河川名_78:78</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>河川名_88:88</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>河川名_98:98</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78387,7 +80304,187 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>河川名_19:19</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>河川名_29:29</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>河川名_39:39</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>河川名_49:49</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>河川名_59:59</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>河川名_69:69</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>河川名_79:79</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>河川名_89:89</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>河川名_99:99</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -78409,1987 +80506,187 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>河川名_11:11</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>河川名_20:20</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>河川名_12:12</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>河川名_30:30</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>河川名_13:13</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>河川名_40:40</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>河川名_14:14</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>河川名_50:50</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>河川名_15:15</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>河川名_60:60</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>河川名_16:16</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>河川名_70:70</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>河川名_17:17</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>河川名_80:80</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>河川名_18:18</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>河川名_90:90</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>河川名_19:19</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>河川名_100:100</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>河川名_20:20</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>河川名_21:21</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>河川名_22:22</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>河川名_23:23</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>河川名_24:24</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>河川名_25:25</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>河川名_26:26</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>河川名_27:27</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>河川名_28:28</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>河川名_29:29</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>河川名_30:30</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>河川名_31:31</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>河川名_32:32</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>河川名_33:33</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>河川名_34:34</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>河川名_35:35</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>河川名_36:36</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>河川名_37:37</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>河川名_38:38</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>河川名_39:39</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>河川名_40:40</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>河川名_41:41</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>河川名_42:42</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>河川名_43:43</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>河川名_44:44</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>河川名_45:45</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>河川名_46:46</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>河川名_47:47</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>河川名_48:48</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>河川名_49:49</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>河川名_50:50</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>河川名_51:51</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>河川名_52:52</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>河川名_53:53</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>河川名_54:54</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>河川名_55:55</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>河川名_56:56</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>河川名_57:57</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>河川名_58:58</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>河川名_59:59</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>河川名_60:60</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>河川名_61:61</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>河川名_62:62</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>河川名_63:63</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>河川名_64:64</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>河川名_65:65</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>河川名_66:66</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>河川名_67:67</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>河川名_68:68</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>河川名_69:69</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>河川名_70:70</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>河川名_71:71</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>河川名_72:72</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>河川名_73:73</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>河川名_74:74</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>河川名_75:75</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>河川名_76:76</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>河川名_77:77</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>河川名_78:78</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>河川名_79:79</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>河川名_80:80</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>河川名_81:81</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>河川名_82:82</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>河川名_83:83</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>河川名_84:84</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>河川名_85:85</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>河川名_86:86</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>河川名_87:87</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>河川名_88:88</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>河川名_89:89</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>河川名_90:90</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>河川名_91:91</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>河川名_92:92</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>河川名_93:93</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>河川名_94:94</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>河川名_95:95</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>河川名_96:96</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>河川名_97:97</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>河川名_98:98</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>河川名_99:99</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>河川名_100:100</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>202</t>
         </is>
       </c>
     </row>
